--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15198.32529359286</v>
+        <v>19814.44452440068</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="F4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="H4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="I4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="J4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="K4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="L4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="M4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="N4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="O4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="P4" t="n">
-        <v>41861.60900671707</v>
+        <v>41411.13600233983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29012.3868360913</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="C6" t="n">
-        <v>-29012.3868360913</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="D6" t="n">
-        <v>-29012.3868360913</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="E6" t="n">
-        <v>-98548.83740682092</v>
+        <v>-98098.36440244362</v>
       </c>
       <c r="F6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="G6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="H6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="I6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="J6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="K6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="L6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="M6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="N6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="O6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
       <c r="P6" t="n">
-        <v>34551.16259317913</v>
+        <v>35001.63559755637</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19814.44452440068</v>
+        <v>33540.80266181887</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="C4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D4" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E4" t="n">
         <v>41411.13600233983</v>
@@ -26528,7 +26530,7 @@
         <v>-28252.22972342766</v>
       </c>
       <c r="E6" t="n">
-        <v>-98098.36440244362</v>
+        <v>-98098.36440244368</v>
       </c>
       <c r="F6" t="n">
         <v>35001.63559755637</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33540.80266181887</v>
+        <v>-91569.09613565772</v>
       </c>
     </row>
     <row r="7">
@@ -26322,40 +26322,40 @@
         <v>75255.18387201249</v>
       </c>
       <c r="E2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="F2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="G2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="H2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="I2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="J2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="K2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="L2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="M2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="N2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="O2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="P2" t="n">
-        <v>80024.38370490453</v>
+        <v>80024.38370490454</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346242</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346242</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346242</v>
       </c>
       <c r="E6" t="n">
-        <v>-98098.36440244368</v>
+        <v>-112908.3812415576</v>
       </c>
       <c r="F6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="G6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="H6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="I6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="J6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="K6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="L6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="M6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="N6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="O6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
       <c r="P6" t="n">
-        <v>35001.63559755637</v>
+        <v>20191.61875844248</v>
       </c>
     </row>
   </sheetData>
